--- a/SatuSehat/Specs Format FHIR/custom/Location.xlsx
+++ b/SatuSehat/Specs Format FHIR/custom/Location.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Resource Name</t>
   </si>
@@ -159,6 +159,21 @@
   </si>
   <si>
     <t>Identifier</t>
+  </si>
+  <si>
+    <t>Untuk clinic spesialis, physicalType= Site</t>
+  </si>
+  <si>
+    <t>Location.physicalType</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>Tipe fisik lokasi</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/valueset-location-physical-type.html</t>
   </si>
 </sst>
 </file>
@@ -278,27 +293,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -313,43 +313,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -395,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -406,40 +369,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -448,16 +408,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,32 +441,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -774,18 +725,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.36328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="29.453125" style="1" customWidth="1"/>
@@ -793,209 +744,232 @@
     <col min="9" max="9" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="6" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>3</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="7">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="A4:B4"/>
@@ -1006,13 +980,21 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" location="string" display="https://hl7.org/fhir/datatypes.html - string"/>
     <hyperlink ref="C10" r:id="rId2" location="code" display="https://hl7.org/fhir/datatypes.html - code"/>
     <hyperlink ref="C9" r:id="rId3" location="Identifier" display="https://hl7.org/fhir/datatypes.html - Identifier"/>
+    <hyperlink ref="C13" r:id="rId4" location="code" display="https://hl7.org/fhir/datatypes.html - code"/>
+    <hyperlink ref="I13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>